--- a/artfynd/A 199-2023.xlsx
+++ b/artfynd/A 199-2023.xlsx
@@ -5602,14 +5602,14 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>108074148</v>
+        <v>108458836</v>
       </c>
       <c r="B39" t="n">
         <v>96334</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -5642,15 +5642,19 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Lilla Högebergstjärn S/V., Dls</t>
+          <t>Lilla Högebergstjärn S/V, Dls</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -5660,7 +5664,7 @@
         <v>6566513.918979991</v>
       </c>
       <c r="S39" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5680,6 +5684,11 @@
       <c r="W39" t="inlineStr">
         <is>
           <t>Nössemark</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>OD-Dal-0168</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -5712,23 +5721,22 @@
       <c r="AG39" t="b">
         <v>0</v>
       </c>
-      <c r="AI39" t="inlineStr">
-        <is>
-          <t>Mosseblåbärbarrskog</t>
-        </is>
-      </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
+          <t>Claes Kannesten</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
           <t>Tommy Solberg</t>
         </is>
       </c>
-      <c r="AX39" t="inlineStr">
-        <is>
-          <t>Tommy Solberg</t>
-        </is>
-      </c>
-      <c r="AY39" t="inlineStr"/>
+      <c r="AY39" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
